--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="220">
   <si>
     <t>ModuleName</t>
   </si>
@@ -648,6 +648,48 @@
   </si>
   <si>
     <t>93634</t>
+  </si>
+  <si>
+    <t>6405379293</t>
+  </si>
+  <si>
+    <t>2422242035</t>
+  </si>
+  <si>
+    <t>2463145032</t>
+  </si>
+  <si>
+    <t>5908146300</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 04:10:46 PM</t>
+  </si>
+  <si>
+    <t>93954</t>
+  </si>
+  <si>
+    <t>5220377745</t>
+  </si>
+  <si>
+    <t>3717278154</t>
+  </si>
+  <si>
+    <t>6763249536</t>
+  </si>
+  <si>
+    <t>7895673310</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 04:04:59 PM</t>
+  </si>
+  <si>
+    <t>94446</t>
   </si>
 </sst>
 </file>
@@ -6394,7 +6436,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6418,13 +6460,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6463,13 +6505,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6487,7 +6529,7 @@
         <v>154</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6499,7 +6541,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6511,7 +6553,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6773,7 +6815,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6848,7 +6890,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6872,7 +6914,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6884,7 +6926,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7139,7 +7181,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7214,7 +7256,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7238,7 +7280,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7250,7 +7292,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7505,7 +7547,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7580,7 +7622,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7604,7 +7646,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7616,7 +7658,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="254">
   <si>
     <t>ModuleName</t>
   </si>
@@ -690,6 +690,108 @@
   </si>
   <si>
     <t>94446</t>
+  </si>
+  <si>
+    <t>9613772708</t>
+  </si>
+  <si>
+    <t>7191777831</t>
+  </si>
+  <si>
+    <t>6593015405</t>
+  </si>
+  <si>
+    <t>8772469927</t>
+  </si>
+  <si>
+    <t>2474800859</t>
+  </si>
+  <si>
+    <t>9787628018</t>
+  </si>
+  <si>
+    <t>5510757786</t>
+  </si>
+  <si>
+    <t>5106620952</t>
+  </si>
+  <si>
+    <t>2303803994</t>
+  </si>
+  <si>
+    <t>3742070575</t>
+  </si>
+  <si>
+    <t>4609554727</t>
+  </si>
+  <si>
+    <t>2360782847</t>
+  </si>
+  <si>
+    <t>7829686040</t>
+  </si>
+  <si>
+    <t>6885509852</t>
+  </si>
+  <si>
+    <t>4898452095</t>
+  </si>
+  <si>
+    <t>4611350568</t>
+  </si>
+  <si>
+    <t>3376522403</t>
+  </si>
+  <si>
+    <t>9059999038</t>
+  </si>
+  <si>
+    <t>5320489838</t>
+  </si>
+  <si>
+    <t>4811825705</t>
+  </si>
+  <si>
+    <t>1831954733</t>
+  </si>
+  <si>
+    <t>5695545229</t>
+  </si>
+  <si>
+    <t>6910618104</t>
+  </si>
+  <si>
+    <t>9633286153</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 06:14:26 PM</t>
+  </si>
+  <si>
+    <t>97676</t>
+  </si>
+  <si>
+    <t>4493962894</t>
+  </si>
+  <si>
+    <t>1389821531</t>
+  </si>
+  <si>
+    <t>0574502467</t>
+  </si>
+  <si>
+    <t>8319897777</t>
+  </si>
+  <si>
+    <t>2024-03-06 08:05:34 PM</t>
+  </si>
+  <si>
+    <t>97694</t>
   </si>
 </sst>
 </file>
@@ -6436,7 +6538,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6460,13 +6562,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6505,13 +6607,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6529,7 +6631,7 @@
         <v>154</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6541,7 +6643,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6553,7 +6655,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6815,7 +6917,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6890,7 +6992,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6914,7 +7016,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6926,7 +7028,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7181,7 +7283,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7256,7 +7358,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7280,7 +7382,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7292,7 +7394,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7547,7 +7649,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7622,7 +7724,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7646,7 +7748,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7658,7 +7760,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="261">
   <si>
     <t>ModuleName</t>
   </si>
@@ -792,6 +792,27 @@
   </si>
   <si>
     <t>97694</t>
+  </si>
+  <si>
+    <t>6695711773</t>
+  </si>
+  <si>
+    <t>8731206014</t>
+  </si>
+  <si>
+    <t>0418609505</t>
+  </si>
+  <si>
+    <t>1679662601</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-10 05:11:51 PM</t>
+  </si>
+  <si>
+    <t>122109</t>
   </si>
 </sst>
 </file>
@@ -6538,7 +6559,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6562,13 +6583,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>245</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6607,13 +6628,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6631,7 +6652,7 @@
         <v>154</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6643,7 +6664,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6655,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6917,7 +6938,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6992,7 +7013,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -7016,7 +7037,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -7028,7 +7049,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7283,7 +7304,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7358,7 +7379,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7382,7 +7403,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7394,7 +7415,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7649,7 +7670,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7724,7 +7745,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7748,7 +7769,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7760,7 +7781,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="275">
   <si>
     <t>ModuleName</t>
   </si>
@@ -813,6 +813,48 @@
   </si>
   <si>
     <t>122109</t>
+  </si>
+  <si>
+    <t>7409050001</t>
+  </si>
+  <si>
+    <t>0087641708</t>
+  </si>
+  <si>
+    <t>9660987146</t>
+  </si>
+  <si>
+    <t>4023229326</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-12 11:19:00 AM</t>
+  </si>
+  <si>
+    <t>122151</t>
+  </si>
+  <si>
+    <t>6725060143</t>
+  </si>
+  <si>
+    <t>5798088716</t>
+  </si>
+  <si>
+    <t>9768718000</t>
+  </si>
+  <si>
+    <t>1087949864</t>
+  </si>
+  <si>
+    <t>2024-04-12 11:35:54 AM</t>
+  </si>
+  <si>
+    <t>122153</t>
   </si>
 </sst>
 </file>
@@ -6559,7 +6601,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6583,13 +6625,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6628,13 +6670,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6652,7 +6694,7 @@
         <v>154</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6664,7 +6706,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6676,7 +6718,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6938,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -7013,7 +7055,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -7037,7 +7079,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -7049,7 +7091,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7304,7 +7346,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7379,7 +7421,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7403,7 +7445,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7415,7 +7457,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7670,7 +7712,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7745,7 +7787,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7769,7 +7811,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7781,7 +7823,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="283">
   <si>
     <t>ModuleName</t>
   </si>
@@ -855,6 +855,30 @@
   </si>
   <si>
     <t>122153</t>
+  </si>
+  <si>
+    <t>8096715151</t>
+  </si>
+  <si>
+    <t>8251663415</t>
+  </si>
+  <si>
+    <t>1729207300</t>
+  </si>
+  <si>
+    <t>6337876358</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:47:13 AM</t>
+  </si>
+  <si>
+    <t>126192</t>
   </si>
 </sst>
 </file>
@@ -6601,7 +6625,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6625,13 +6649,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>266</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6670,13 +6694,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6691,10 +6715,10 @@
         <v>148</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6706,7 +6730,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6718,7 +6742,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6980,7 +7004,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -7055,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -7079,7 +7103,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -7091,7 +7115,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7346,7 +7370,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7421,7 +7445,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7445,7 +7469,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7457,7 +7481,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7712,7 +7736,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7787,7 +7811,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7811,7 +7835,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7823,7 +7847,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="295">
   <si>
     <t>ModuleName</t>
   </si>
@@ -879,6 +879,42 @@
   </si>
   <si>
     <t>126192</t>
+  </si>
+  <si>
+    <t>9840072216</t>
+  </si>
+  <si>
+    <t>9840008499</t>
+  </si>
+  <si>
+    <t>9840099754</t>
+  </si>
+  <si>
+    <t>9840065777</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-14 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>136751</t>
+  </si>
+  <si>
+    <t>9840090019</t>
+  </si>
+  <si>
+    <t>9840070079</t>
+  </si>
+  <si>
+    <t>9840017668</t>
+  </si>
+  <si>
+    <t>9840088047</t>
+  </si>
+  <si>
+    <t>136753</t>
   </si>
 </sst>
 </file>
@@ -6625,7 +6661,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6649,13 +6685,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6694,13 +6730,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6718,7 +6754,7 @@
         <v>279</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6730,7 +6766,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6742,7 +6778,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -7004,7 +7040,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -7079,7 +7115,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -7103,7 +7139,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -7115,7 +7151,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7370,7 +7406,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7445,7 +7481,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7469,7 +7505,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7481,7 +7517,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7736,7 +7772,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7811,7 +7847,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7835,7 +7871,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7847,7 +7883,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Yearly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="347">
   <si>
     <t>ModuleName</t>
   </si>
@@ -915,6 +915,162 @@
   </si>
   <si>
     <t>136753</t>
+  </si>
+  <si>
+    <t>9840007913</t>
+  </si>
+  <si>
+    <t>9840066262</t>
+  </si>
+  <si>
+    <t>9840067051</t>
+  </si>
+  <si>
+    <t>9840032009</t>
+  </si>
+  <si>
+    <t>9840024078</t>
+  </si>
+  <si>
+    <t>9840026106</t>
+  </si>
+  <si>
+    <t>9840029483</t>
+  </si>
+  <si>
+    <t>9840093264</t>
+  </si>
+  <si>
+    <t>9840022923</t>
+  </si>
+  <si>
+    <t>9840099538</t>
+  </si>
+  <si>
+    <t>9840006649</t>
+  </si>
+  <si>
+    <t>9840061108</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158770</t>
+  </si>
+  <si>
+    <t>9840083930</t>
+  </si>
+  <si>
+    <t>9840014807</t>
+  </si>
+  <si>
+    <t>9840030393</t>
+  </si>
+  <si>
+    <t>9840068398</t>
+  </si>
+  <si>
+    <t>158792</t>
+  </si>
+  <si>
+    <t>9840009570</t>
+  </si>
+  <si>
+    <t>9840034516</t>
+  </si>
+  <si>
+    <t>9840080909</t>
+  </si>
+  <si>
+    <t>9840098041</t>
+  </si>
+  <si>
+    <t>158798</t>
+  </si>
+  <si>
+    <t>9840042574</t>
+  </si>
+  <si>
+    <t>9840028731</t>
+  </si>
+  <si>
+    <t>9840000767</t>
+  </si>
+  <si>
+    <t>9840045221</t>
+  </si>
+  <si>
+    <t>158813</t>
+  </si>
+  <si>
+    <t>9840019642</t>
+  </si>
+  <si>
+    <t>9840029309</t>
+  </si>
+  <si>
+    <t>9840077479</t>
+  </si>
+  <si>
+    <t>9840089424</t>
+  </si>
+  <si>
+    <t>158815</t>
+  </si>
+  <si>
+    <t>9840098527</t>
+  </si>
+  <si>
+    <t>9840067691</t>
+  </si>
+  <si>
+    <t>9840091969</t>
+  </si>
+  <si>
+    <t>9840006458</t>
+  </si>
+  <si>
+    <t>03-01-2025</t>
+  </si>
+  <si>
+    <t>06-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158872</t>
+  </si>
+  <si>
+    <t>9840027354</t>
+  </si>
+  <si>
+    <t>9840088481</t>
+  </si>
+  <si>
+    <t>9840065926</t>
+  </si>
+  <si>
+    <t>9840008187</t>
+  </si>
+  <si>
+    <t>158874</t>
+  </si>
+  <si>
+    <t>9840038709</t>
+  </si>
+  <si>
+    <t>9840011735</t>
+  </si>
+  <si>
+    <t>9840051565</t>
+  </si>
+  <si>
+    <t>9840032846</t>
+  </si>
+  <si>
+    <t>158880</t>
   </si>
 </sst>
 </file>
@@ -6661,7 +6817,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6685,13 +6841,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>245</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6730,13 +6886,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6754,7 +6910,7 @@
         <v>279</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6766,7 +6922,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6778,7 +6934,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -7040,7 +7196,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -7115,7 +7271,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -7139,7 +7295,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -7151,7 +7307,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7406,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7481,7 +7637,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7505,7 +7661,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7517,7 +7673,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7772,7 +7928,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7847,7 +8003,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7871,7 +8027,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7883,7 +8039,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>
